--- a/pmid.xlsx
+++ b/pmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myGithub\ensembl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8A27A40A-A5C4-41A1-AD97-6DEFEB87B36F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{082EA1FA-F352-4505-92FF-C2CA78724604}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">condition!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">gene_snp!$A$1:$BF$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">gene_snp!$A$1:$BF$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">snp_genotype!$A$1:$M$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">snp_score!$A$1:$T$448</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="369">
   <si>
     <t>condition_id</t>
   </si>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t xml:space="preserve">rs1010 </t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
   <si>
     <t>A</t>
@@ -20497,12 +20494,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BD90"/>
+  <dimension ref="A1:BD89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="AG13" sqref="AG13"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20737,179 +20734,114 @@
         <v>7</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C2" s="46" t="str">
-        <f t="shared" ref="C2:C3" si="0">A2&amp;"_"&amp;B2&amp;".xml"</f>
-        <v>coronary_heart_disease_VAMP8.xml</v>
+        <f t="shared" ref="C2" si="0">A2&amp;"_"&amp;B2&amp;".xml"</f>
+        <v>coronary_heart_disease_APOB.xml</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>64</v>
+        <v>353</v>
       </c>
       <c r="F2" s="60">
-        <f>snp_score!R394</f>
+        <f>VLOOKUP(E2,[1]snp_score!A:R,18,)</f>
+        <v>270.01560000000001</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="I2" s="47">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0.9</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
+      <c r="N2" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q2" s="48"/>
       <c r="S2" s="36">
-        <v>85581859</v>
+        <v>21002881</v>
       </c>
       <c r="T2" s="36">
         <v>2</v>
       </c>
-      <c r="U2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="U2" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="W2" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="X2" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y2" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z2" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB2" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC2" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD2" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF2" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH2" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AK2" t="s">
-        <v>82</v>
+      <c r="AJ2" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK2" s="47" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>coronary_heart_disease_APOB.xml</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>354</v>
-      </c>
-      <c r="F3" s="60">
-        <f>VLOOKUP(E3,[1]snp_score!A:R,18,)</f>
-        <v>270.01560000000001</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0.99</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="I3" s="47">
-        <v>0</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="P3" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q3" s="48"/>
-      <c r="S3" s="36">
-        <v>21002881</v>
-      </c>
-      <c r="T3" s="36">
-        <v>2</v>
-      </c>
-      <c r="U3" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="V3" s="47" t="s">
-        <v>357</v>
-      </c>
-      <c r="W3" s="47" t="s">
-        <v>358</v>
-      </c>
-      <c r="X3" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y3" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z3" s="47" t="s">
-        <v>361</v>
-      </c>
-      <c r="AB3" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="AC3" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="AD3" s="47" t="s">
-        <v>364</v>
-      </c>
-      <c r="AF3" s="47" t="s">
-        <v>365</v>
-      </c>
-      <c r="AG3" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH3" s="47" t="s">
-        <v>367</v>
-      </c>
-      <c r="AI3" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ3" s="47" t="s">
-        <v>368</v>
-      </c>
-      <c r="AK3" s="47" t="s">
-        <v>369</v>
-      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="46"/>
+      <c r="F3" s="60"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="33"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="AB3"/>
+      <c r="AF3"/>
+      <c r="AH3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
     </row>
     <row r="4" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="36"/>
       <c r="C4" s="46"/>
       <c r="F4" s="60"/>
+      <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="N4" s="48"/>
@@ -20920,85 +20852,93 @@
       <c r="T4" s="36"/>
       <c r="U4"/>
       <c r="V4"/>
+      <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
       <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
       <c r="AF4"/>
+      <c r="AG4"/>
       <c r="AH4"/>
+      <c r="AI4"/>
       <c r="AJ4"/>
       <c r="AK4"/>
     </row>
     <row r="5" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="36"/>
       <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="60"/>
-      <c r="G5"/>
-      <c r="H5"/>
       <c r="I5"/>
       <c r="N5" s="48"/>
       <c r="O5" s="62"/>
       <c r="P5" s="62"/>
-      <c r="Q5" s="33"/>
+      <c r="Q5" s="36"/>
       <c r="S5" s="36"/>
       <c r="T5" s="36"/>
       <c r="U5"/>
       <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
       <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
       <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
       <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
-      <c r="AK5"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="51"/>
     </row>
     <row r="6" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
       <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
       <c r="E6" s="58"/>
       <c r="F6" s="60"/>
+      <c r="G6"/>
+      <c r="H6"/>
       <c r="I6"/>
       <c r="N6" s="48"/>
       <c r="O6" s="62"/>
       <c r="P6" s="62"/>
-      <c r="Q6" s="36"/>
+      <c r="Q6" s="33"/>
       <c r="S6" s="36"/>
       <c r="T6" s="36"/>
       <c r="U6"/>
       <c r="V6"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
       <c r="Z6"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
       <c r="AD6"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
       <c r="AH6"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
     </row>
     <row r="7" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="46"/>
-      <c r="E7" s="58"/>
       <c r="F7" s="60"/>
       <c r="G7"/>
       <c r="H7"/>
@@ -21035,9 +20975,8 @@
       <c r="H8"/>
       <c r="I8"/>
       <c r="N8" s="48"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="33"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
       <c r="S8" s="36"/>
       <c r="T8" s="36"/>
       <c r="U8"/>
@@ -21061,32 +21000,39 @@
     <row r="9" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="36"/>
       <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="60"/>
-      <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="36"/>
       <c r="S9" s="36"/>
       <c r="T9" s="36"/>
       <c r="U9"/>
       <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
       <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
       <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
       <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
     </row>
     <row r="10" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="36"/>
@@ -21094,7 +21040,6 @@
       <c r="D10" s="46"/>
       <c r="E10" s="58"/>
       <c r="F10" s="60"/>
-      <c r="H10"/>
       <c r="I10"/>
       <c r="N10" s="48"/>
       <c r="O10" s="62"/>
@@ -21102,7 +21047,7 @@
       <c r="Q10" s="36"/>
       <c r="S10" s="36"/>
       <c r="T10" s="36"/>
-      <c r="U10"/>
+      <c r="U10" s="48"/>
       <c r="V10"/>
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
@@ -21128,65 +21073,61 @@
     <row r="11" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="36"/>
       <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="58"/>
       <c r="F11" s="60"/>
+      <c r="G11"/>
+      <c r="H11"/>
       <c r="I11"/>
       <c r="N11" s="48"/>
       <c r="O11" s="62"/>
       <c r="P11" s="62"/>
-      <c r="Q11" s="36"/>
+      <c r="Q11" s="33"/>
       <c r="S11" s="36"/>
       <c r="T11" s="36"/>
-      <c r="U11" s="48"/>
-      <c r="V11"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
+      <c r="U11"/>
+      <c r="X11"/>
       <c r="Z11"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="51"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AF11"/>
       <c r="AH11"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="51"/>
-      <c r="AK11" s="51"/>
-      <c r="AM11" s="51"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="51"/>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="51"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
     </row>
     <row r="12" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="36"/>
       <c r="C12" s="46"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="60"/>
-      <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="N12" s="48"/>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
-      <c r="Q12" s="33"/>
+      <c r="Q12" s="36"/>
       <c r="S12" s="36"/>
       <c r="T12" s="36"/>
-      <c r="U12"/>
+      <c r="U12" s="50"/>
+      <c r="V12"/>
+      <c r="W12"/>
       <c r="X12"/>
+      <c r="Y12"/>
       <c r="Z12"/>
+      <c r="AA12"/>
       <c r="AB12"/>
       <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
       <c r="AF12"/>
+      <c r="AG12"/>
       <c r="AH12"/>
+      <c r="AI12"/>
       <c r="AJ12"/>
       <c r="AK12"/>
     </row>
     <row r="13" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="36"/>
       <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="58"/>
       <c r="F13" s="60"/>
       <c r="H13"/>
@@ -21197,31 +21138,34 @@
       <c r="Q13" s="36"/>
       <c r="S13" s="36"/>
       <c r="T13" s="36"/>
-      <c r="U13" s="50"/>
+      <c r="U13"/>
       <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
       <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
       <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
       <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13"/>
-      <c r="AK13"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
     </row>
     <row r="14" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="36"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
-      <c r="E14" s="58"/>
       <c r="F14" s="60"/>
-      <c r="H14"/>
       <c r="I14"/>
       <c r="N14" s="48"/>
       <c r="O14" s="62"/>
@@ -21229,7 +21173,7 @@
       <c r="Q14" s="36"/>
       <c r="S14" s="36"/>
       <c r="T14" s="36"/>
-      <c r="U14"/>
+      <c r="U14" s="48"/>
       <c r="V14"/>
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
@@ -21255,73 +21199,67 @@
     <row r="15" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="36"/>
       <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
       <c r="F15" s="60"/>
+      <c r="H15"/>
       <c r="I15"/>
       <c r="N15" s="48"/>
       <c r="O15" s="62"/>
       <c r="P15" s="62"/>
-      <c r="Q15" s="36"/>
+      <c r="Q15" s="33"/>
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
-      <c r="U15" s="48"/>
-      <c r="V15"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
+      <c r="U15"/>
+      <c r="X15"/>
       <c r="Z15"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
       <c r="AD15"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
       <c r="AH15"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
     </row>
     <row r="16" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="36"/>
       <c r="C16" s="46"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="60"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="N16" s="48"/>
       <c r="O16" s="62"/>
       <c r="P16" s="62"/>
-      <c r="Q16" s="33"/>
+      <c r="Q16" s="36"/>
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
       <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
       <c r="X16"/>
+      <c r="Y16"/>
       <c r="Z16"/>
+      <c r="AA16"/>
       <c r="AB16"/>
       <c r="AC16"/>
       <c r="AD16"/>
+      <c r="AE16"/>
       <c r="AF16"/>
       <c r="AG16"/>
       <c r="AH16"/>
+      <c r="AI16"/>
       <c r="AJ16"/>
       <c r="AK16"/>
     </row>
     <row r="17" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="36"/>
       <c r="C17" s="46"/>
-      <c r="E17" s="58"/>
       <c r="F17" s="60"/>
-      <c r="H17"/>
       <c r="I17"/>
       <c r="N17" s="48"/>
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
-      <c r="Q17" s="36"/>
+      <c r="Q17" s="33"/>
       <c r="S17" s="36"/>
       <c r="T17" s="36"/>
       <c r="U17"/>
@@ -21345,7 +21283,10 @@
     <row r="18" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="36"/>
       <c r="C18" s="46"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="60"/>
+      <c r="G18"/>
+      <c r="H18"/>
       <c r="I18"/>
       <c r="N18" s="48"/>
       <c r="O18" s="62"/>
@@ -21376,13 +21317,12 @@
       <c r="C19" s="46"/>
       <c r="E19" s="58"/>
       <c r="F19" s="60"/>
-      <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="N19" s="48"/>
       <c r="O19" s="62"/>
       <c r="P19" s="62"/>
-      <c r="Q19" s="33"/>
+      <c r="Q19" s="36"/>
       <c r="S19" s="36"/>
       <c r="T19" s="36"/>
       <c r="U19"/>
@@ -21406,16 +21346,14 @@
     <row r="20" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="36"/>
       <c r="C20" s="46"/>
-      <c r="E20" s="58"/>
       <c r="F20" s="60"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="N20" s="48"/>
       <c r="O20" s="62"/>
       <c r="P20" s="62"/>
-      <c r="Q20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
+      <c r="Q20" s="62"/>
+      <c r="S20" s="51"/>
       <c r="U20"/>
       <c r="V20"/>
       <c r="W20"/>
@@ -21437,15 +21375,16 @@
     <row r="21" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="36"/>
       <c r="C21" s="46"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="60"/>
-      <c r="H21"/>
       <c r="I21"/>
       <c r="N21" s="48"/>
       <c r="O21" s="62"/>
       <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="S21" s="51"/>
-      <c r="U21"/>
+      <c r="Q21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="50"/>
       <c r="V21"/>
       <c r="W21"/>
       <c r="X21"/>
@@ -21468,14 +21407,16 @@
       <c r="C22" s="46"/>
       <c r="E22" s="58"/>
       <c r="F22" s="60"/>
+      <c r="G22"/>
+      <c r="H22"/>
       <c r="I22"/>
       <c r="N22" s="48"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="36"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
       <c r="S22" s="36"/>
       <c r="T22" s="36"/>
-      <c r="U22" s="50"/>
+      <c r="U22"/>
       <c r="V22"/>
       <c r="W22"/>
       <c r="X22"/>
@@ -21496,28 +21437,24 @@
     <row r="23" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="36"/>
       <c r="C23" s="46"/>
-      <c r="E23" s="58"/>
       <c r="F23" s="60"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="33"/>
       <c r="S23" s="36"/>
       <c r="T23" s="36"/>
       <c r="U23"/>
       <c r="V23"/>
-      <c r="W23"/>
       <c r="X23"/>
       <c r="Y23"/>
       <c r="Z23"/>
-      <c r="AA23"/>
       <c r="AB23"/>
       <c r="AC23"/>
       <c r="AD23"/>
-      <c r="AE23"/>
       <c r="AF23"/>
       <c r="AG23"/>
       <c r="AH23"/>
@@ -21528,96 +21465,101 @@
     <row r="24" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="36"/>
       <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
       <c r="F24" s="60"/>
-      <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="N24" s="48"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="33"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="46"/>
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
-      <c r="U24"/>
+      <c r="U24" s="49"/>
       <c r="V24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
       <c r="Z24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
       <c r="AD24"/>
-      <c r="AF24"/>
-      <c r="AG24"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="51"/>
       <c r="AH24"/>
-      <c r="AI24"/>
-      <c r="AJ24"/>
-      <c r="AK24"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="51"/>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="51"/>
+      <c r="AO24" s="51"/>
+      <c r="AP24" s="51"/>
+      <c r="AQ24" s="51"/>
     </row>
     <row r="25" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="36"/>
       <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
       <c r="F25" s="60"/>
+      <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="N25" s="48"/>
       <c r="O25" s="48"/>
       <c r="P25" s="48"/>
-      <c r="Q25" s="46"/>
       <c r="S25" s="36"/>
       <c r="T25" s="36"/>
-      <c r="U25" s="49"/>
+      <c r="U25"/>
       <c r="V25"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
       <c r="Z25"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
       <c r="AD25"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
       <c r="AH25"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="51"/>
-      <c r="AM25" s="51"/>
-      <c r="AN25" s="51"/>
-      <c r="AO25" s="51"/>
-      <c r="AP25" s="51"/>
-      <c r="AQ25" s="51"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
     </row>
     <row r="26" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="36"/>
       <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="60"/>
-      <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="N26" s="48"/>
       <c r="O26" s="48"/>
       <c r="P26" s="48"/>
+      <c r="Q26" s="46"/>
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-      <c r="AE26"/>
-      <c r="AF26"/>
-      <c r="AG26"/>
-      <c r="AH26"/>
-      <c r="AI26"/>
-      <c r="AJ26"/>
-      <c r="AK26"/>
+      <c r="U26" s="50"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="51"/>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
     </row>
     <row r="27" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="36"/>
@@ -21628,21 +21570,25 @@
       <c r="H27"/>
       <c r="I27"/>
       <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="46"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
       <c r="S27" s="36"/>
       <c r="T27" s="36"/>
-      <c r="U27" s="50"/>
+      <c r="U27" s="51"/>
+      <c r="V27"/>
       <c r="W27" s="51"/>
       <c r="X27" s="51"/>
       <c r="Y27" s="51"/>
+      <c r="Z27"/>
       <c r="AA27" s="51"/>
       <c r="AB27" s="51"/>
       <c r="AC27" s="51"/>
+      <c r="AD27"/>
       <c r="AE27" s="51"/>
       <c r="AF27" s="51"/>
       <c r="AG27" s="51"/>
+      <c r="AH27"/>
       <c r="AI27" s="51"/>
       <c r="AJ27" s="51"/>
       <c r="AK27" s="51"/>
@@ -21655,71 +21601,64 @@
     <row r="28" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="36"/>
       <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="58"/>
       <c r="F28" s="60"/>
+      <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="N28" s="48"/>
       <c r="O28" s="62"/>
       <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
+      <c r="Q28" s="33"/>
       <c r="S28" s="36"/>
       <c r="T28" s="36"/>
-      <c r="U28" s="51"/>
-      <c r="V28"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
+      <c r="U28"/>
+      <c r="X28"/>
       <c r="Z28"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
       <c r="AD28"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="51"/>
-      <c r="AG28" s="51"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
       <c r="AH28"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="51"/>
-      <c r="AO28" s="51"/>
-      <c r="AP28" s="51"/>
-      <c r="AQ28" s="51"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
     </row>
     <row r="29" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="36"/>
       <c r="C29" s="46"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="60"/>
-      <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="N29" s="48"/>
       <c r="O29" s="62"/>
       <c r="P29" s="62"/>
-      <c r="Q29" s="33"/>
+      <c r="Q29" s="36"/>
       <c r="S29" s="36"/>
       <c r="T29" s="36"/>
-      <c r="U29"/>
+      <c r="U29" s="50"/>
+      <c r="V29"/>
       <c r="X29"/>
+      <c r="Y29"/>
       <c r="Z29"/>
+      <c r="AA29"/>
       <c r="AB29"/>
       <c r="AC29"/>
       <c r="AD29"/>
+      <c r="AE29"/>
       <c r="AF29"/>
       <c r="AG29"/>
       <c r="AH29"/>
+      <c r="AI29"/>
       <c r="AJ29"/>
       <c r="AK29"/>
     </row>
     <row r="30" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="36"/>
       <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="58"/>
       <c r="F30" s="60"/>
-      <c r="H30"/>
       <c r="I30"/>
       <c r="N30" s="48"/>
       <c r="O30" s="62"/>
@@ -21729,27 +21668,33 @@
       <c r="T30" s="36"/>
       <c r="U30" s="50"/>
       <c r="V30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
       <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
       <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AG30"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="51"/>
       <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="51"/>
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="51"/>
+      <c r="AO30" s="51"/>
+      <c r="AP30" s="51"/>
+      <c r="AQ30" s="51"/>
     </row>
     <row r="31" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="36"/>
       <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
       <c r="E31" s="58"/>
       <c r="F31" s="60"/>
+      <c r="H31"/>
       <c r="I31"/>
       <c r="N31" s="48"/>
       <c r="O31" s="62"/>
@@ -21759,68 +21704,67 @@
       <c r="T31" s="36"/>
       <c r="U31" s="50"/>
       <c r="V31"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
+      <c r="X31"/>
+      <c r="Y31"/>
       <c r="Z31"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
       <c r="AD31"/>
-      <c r="AE31" s="51"/>
-      <c r="AF31" s="51"/>
-      <c r="AG31" s="51"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
       <c r="AH31"/>
-      <c r="AI31" s="51"/>
-      <c r="AJ31" s="51"/>
-      <c r="AK31" s="51"/>
-      <c r="AM31" s="51"/>
-      <c r="AN31" s="51"/>
-      <c r="AO31" s="51"/>
-      <c r="AP31" s="51"/>
-      <c r="AQ31" s="51"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
     </row>
     <row r="32" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="36"/>
       <c r="C32" s="46"/>
-      <c r="E32" s="58"/>
+      <c r="D32" s="46"/>
       <c r="F32" s="60"/>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="36"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="46"/>
       <c r="S32" s="36"/>
       <c r="T32" s="36"/>
-      <c r="U32" s="50"/>
+      <c r="U32" s="45"/>
       <c r="V32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
       <c r="Z32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
       <c r="AD32"/>
-      <c r="AF32"/>
-      <c r="AG32"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
       <c r="AH32"/>
-      <c r="AJ32"/>
-      <c r="AK32"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="51"/>
+      <c r="AM32" s="51"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="51"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="51"/>
     </row>
     <row r="33" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="36"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
       <c r="F33" s="60"/>
-      <c r="H33"/>
       <c r="I33"/>
-      <c r="N33" s="62"/>
+      <c r="N33" s="48"/>
       <c r="O33" s="48"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="46"/>
       <c r="S33" s="36"/>
       <c r="T33" s="36"/>
-      <c r="U33" s="45"/>
+      <c r="U33" s="48"/>
       <c r="V33"/>
       <c r="W33" s="51"/>
       <c r="X33" s="51"/>
@@ -21846,168 +21790,164 @@
     <row r="34" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="36"/>
       <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
       <c r="F34" s="60"/>
+      <c r="G34"/>
+      <c r="H34"/>
       <c r="I34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="32"/>
       <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="46"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="48"/>
       <c r="S34" s="36"/>
       <c r="T34" s="36"/>
-      <c r="U34" s="48"/>
+      <c r="U34" s="43"/>
       <c r="V34"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
+      <c r="X34"/>
+      <c r="Y34"/>
       <c r="Z34"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
       <c r="AD34"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
       <c r="AH34"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="51"/>
-      <c r="AM34" s="51"/>
-      <c r="AN34" s="51"/>
-      <c r="AO34" s="51"/>
-      <c r="AP34" s="51"/>
-      <c r="AQ34" s="51"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
     </row>
     <row r="35" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="36"/>
       <c r="C35" s="46"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="60"/>
-      <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="32"/>
       <c r="N35" s="48"/>
       <c r="O35" s="62"/>
       <c r="P35" s="62"/>
-      <c r="Q35" s="48"/>
+      <c r="Q35" s="36"/>
       <c r="S35" s="36"/>
       <c r="T35" s="36"/>
-      <c r="U35" s="43"/>
+      <c r="U35" s="50"/>
       <c r="V35"/>
       <c r="X35"/>
       <c r="Y35"/>
-      <c r="Z35"/>
       <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
       <c r="AF35"/>
-      <c r="AG35"/>
       <c r="AH35"/>
-      <c r="AI35"/>
       <c r="AJ35"/>
       <c r="AK35"/>
     </row>
     <row r="36" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="36"/>
       <c r="C36" s="46"/>
-      <c r="E36" s="58"/>
       <c r="F36" s="60"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="N36" s="48"/>
       <c r="O36" s="62"/>
       <c r="P36" s="62"/>
-      <c r="Q36" s="36"/>
+      <c r="Q36" s="33"/>
       <c r="S36" s="36"/>
       <c r="T36" s="36"/>
-      <c r="U36" s="50"/>
+      <c r="U36"/>
       <c r="V36"/>
       <c r="X36"/>
       <c r="Y36"/>
+      <c r="Z36"/>
       <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
       <c r="AF36"/>
+      <c r="AG36"/>
       <c r="AH36"/>
+      <c r="AI36"/>
       <c r="AJ36"/>
       <c r="AK36"/>
     </row>
     <row r="37" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="36"/>
       <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
       <c r="F37" s="60"/>
-      <c r="H37"/>
       <c r="I37"/>
       <c r="N37" s="48"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="33"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="46"/>
       <c r="S37" s="36"/>
       <c r="T37" s="36"/>
       <c r="U37"/>
       <c r="V37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
       <c r="Z37"/>
-      <c r="AB37"/>
-      <c r="AC37"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
       <c r="AD37"/>
-      <c r="AF37"/>
-      <c r="AG37"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
       <c r="AH37"/>
-      <c r="AI37"/>
-      <c r="AJ37"/>
-      <c r="AK37"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AM37" s="51"/>
+      <c r="AN37" s="51"/>
+      <c r="AO37" s="51"/>
+      <c r="AP37" s="51"/>
+      <c r="AQ37" s="51"/>
     </row>
     <row r="38" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="36"/>
       <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="60"/>
+      <c r="H38"/>
       <c r="I38"/>
       <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="46"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="36"/>
       <c r="S38" s="36"/>
       <c r="T38" s="36"/>
-      <c r="U38"/>
+      <c r="U38" s="50"/>
       <c r="V38"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
       <c r="Z38"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="51"/>
-      <c r="AC38" s="51"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
       <c r="AD38"/>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="51"/>
-      <c r="AG38" s="51"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
       <c r="AH38"/>
-      <c r="AI38" s="51"/>
-      <c r="AJ38" s="51"/>
-      <c r="AK38" s="51"/>
-      <c r="AM38" s="51"/>
-      <c r="AN38" s="51"/>
-      <c r="AO38" s="51"/>
-      <c r="AP38" s="51"/>
-      <c r="AQ38" s="51"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
     </row>
     <row r="39" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="36"/>
       <c r="C39" s="46"/>
-      <c r="E39" s="58"/>
       <c r="F39" s="60"/>
+      <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="N39" s="48"/>
       <c r="O39" s="62"/>
       <c r="P39" s="62"/>
-      <c r="Q39" s="36"/>
+      <c r="Q39" s="33"/>
       <c r="S39" s="36"/>
       <c r="T39" s="36"/>
-      <c r="U39" s="50"/>
+      <c r="U39"/>
       <c r="V39"/>
       <c r="W39"/>
       <c r="X39"/>
@@ -22033,9 +21973,9 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="N40" s="48"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="33"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
       <c r="S40" s="36"/>
       <c r="T40" s="36"/>
       <c r="U40"/>
@@ -22057,16 +21997,15 @@
       <c r="AK40"/>
     </row>
     <row r="41" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="36"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="46"/>
       <c r="F41" s="60"/>
-      <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="33"/>
       <c r="S41" s="36"/>
       <c r="T41" s="36"/>
       <c r="U41"/>
@@ -22088,7 +22027,7 @@
       <c r="AK41"/>
     </row>
     <row r="42" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="35"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="46"/>
       <c r="F42" s="60"/>
       <c r="H42"/>
@@ -22100,16 +22039,11 @@
       <c r="S42" s="36"/>
       <c r="T42" s="36"/>
       <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
       <c r="X42"/>
-      <c r="Y42"/>
       <c r="Z42"/>
-      <c r="AA42"/>
       <c r="AB42"/>
       <c r="AC42"/>
       <c r="AD42"/>
-      <c r="AE42"/>
       <c r="AF42"/>
       <c r="AG42"/>
       <c r="AH42"/>
@@ -22120,21 +22054,27 @@
     <row r="43" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="36"/>
       <c r="C43" s="46"/>
+      <c r="E43" s="58"/>
       <c r="F43" s="60"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="N43" s="48"/>
       <c r="O43" s="62"/>
       <c r="P43" s="62"/>
-      <c r="Q43" s="33"/>
+      <c r="Q43" s="36"/>
       <c r="S43" s="36"/>
       <c r="T43" s="36"/>
       <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
       <c r="X43"/>
+      <c r="Y43"/>
       <c r="Z43"/>
+      <c r="AA43"/>
       <c r="AB43"/>
       <c r="AC43"/>
       <c r="AD43"/>
+      <c r="AE43"/>
       <c r="AF43"/>
       <c r="AG43"/>
       <c r="AH43"/>
@@ -22145,14 +22085,14 @@
     <row r="44" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="36"/>
       <c r="C44" s="46"/>
-      <c r="E44" s="58"/>
       <c r="F44" s="60"/>
+      <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="N44" s="48"/>
       <c r="O44" s="62"/>
       <c r="P44" s="62"/>
-      <c r="Q44" s="36"/>
+      <c r="Q44" s="33"/>
       <c r="S44" s="36"/>
       <c r="T44" s="36"/>
       <c r="U44"/>
@@ -22176,110 +22116,110 @@
     <row r="45" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="36"/>
       <c r="C45" s="46"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="60"/>
-      <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="N45" s="48"/>
       <c r="O45" s="62"/>
       <c r="P45" s="62"/>
-      <c r="Q45" s="33"/>
+      <c r="Q45" s="36"/>
       <c r="S45" s="36"/>
       <c r="T45" s="36"/>
-      <c r="U45"/>
+      <c r="U45" s="50"/>
       <c r="V45"/>
-      <c r="W45"/>
       <c r="X45"/>
       <c r="Y45"/>
-      <c r="Z45"/>
-      <c r="AA45"/>
       <c r="AB45"/>
-      <c r="AC45"/>
       <c r="AD45"/>
-      <c r="AE45"/>
       <c r="AF45"/>
       <c r="AG45"/>
       <c r="AH45"/>
-      <c r="AI45"/>
       <c r="AJ45"/>
       <c r="AK45"/>
     </row>
     <row r="46" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="36"/>
       <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="58"/>
       <c r="F46" s="60"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="N46" s="48"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="36"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="46"/>
       <c r="S46" s="36"/>
       <c r="T46" s="36"/>
-      <c r="U46" s="50"/>
+      <c r="U46"/>
       <c r="V46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
-      <c r="AB46"/>
+      <c r="W46" s="51"/>
+      <c r="X46" s="51"/>
+      <c r="Y46" s="51"/>
+      <c r="Z46"/>
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="51"/>
+      <c r="AC46" s="51"/>
       <c r="AD46"/>
-      <c r="AF46"/>
-      <c r="AG46"/>
+      <c r="AE46" s="51"/>
+      <c r="AF46" s="51"/>
+      <c r="AG46" s="51"/>
       <c r="AH46"/>
-      <c r="AJ46"/>
-      <c r="AK46"/>
+      <c r="AI46" s="51"/>
+      <c r="AJ46" s="51"/>
+      <c r="AK46" s="51"/>
+      <c r="AM46" s="51"/>
+      <c r="AN46" s="51"/>
+      <c r="AO46" s="51"/>
+      <c r="AP46" s="51"/>
+      <c r="AQ46" s="51"/>
     </row>
     <row r="47" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="36"/>
       <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
       <c r="E47" s="58"/>
       <c r="F47" s="60"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="46"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="36"/>
       <c r="S47" s="36"/>
       <c r="T47" s="36"/>
-      <c r="U47"/>
+      <c r="U47" s="50"/>
       <c r="V47"/>
-      <c r="W47" s="51"/>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="51"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
       <c r="Z47"/>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="51"/>
-      <c r="AC47" s="51"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
       <c r="AD47"/>
-      <c r="AE47" s="51"/>
-      <c r="AF47" s="51"/>
-      <c r="AG47" s="51"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
       <c r="AH47"/>
-      <c r="AI47" s="51"/>
-      <c r="AJ47" s="51"/>
-      <c r="AK47" s="51"/>
-      <c r="AM47" s="51"/>
-      <c r="AN47" s="51"/>
-      <c r="AO47" s="51"/>
-      <c r="AP47" s="51"/>
-      <c r="AQ47" s="51"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
     </row>
     <row r="48" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="36"/>
       <c r="C48" s="46"/>
-      <c r="E48" s="58"/>
       <c r="F48" s="60"/>
+      <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="N48" s="48"/>
       <c r="O48" s="62"/>
       <c r="P48" s="62"/>
-      <c r="Q48" s="36"/>
+      <c r="Q48" s="33"/>
       <c r="S48" s="36"/>
       <c r="T48" s="36"/>
-      <c r="U48" s="50"/>
+      <c r="U48"/>
       <c r="V48"/>
       <c r="W48"/>
       <c r="X48"/>
@@ -22300,41 +22240,45 @@
     <row r="49" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="36"/>
       <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="60"/>
-      <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="N49" s="48"/>
       <c r="O49" s="62"/>
       <c r="P49" s="62"/>
-      <c r="Q49" s="33"/>
+      <c r="Q49" s="36"/>
       <c r="S49" s="36"/>
       <c r="T49" s="36"/>
-      <c r="U49"/>
+      <c r="U49" s="51"/>
       <c r="V49"/>
-      <c r="W49"/>
-      <c r="X49"/>
-      <c r="Y49"/>
+      <c r="W49" s="51"/>
+      <c r="X49" s="51"/>
+      <c r="Y49" s="51"/>
       <c r="Z49"/>
-      <c r="AA49"/>
-      <c r="AB49"/>
-      <c r="AC49"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="51"/>
+      <c r="AC49" s="51"/>
       <c r="AD49"/>
-      <c r="AE49"/>
-      <c r="AF49"/>
-      <c r="AG49"/>
+      <c r="AE49" s="51"/>
+      <c r="AF49" s="51"/>
+      <c r="AG49" s="51"/>
       <c r="AH49"/>
-      <c r="AI49"/>
-      <c r="AJ49"/>
-      <c r="AK49"/>
+      <c r="AI49" s="51"/>
+      <c r="AJ49" s="51"/>
+      <c r="AK49" s="51"/>
+      <c r="AM49" s="51"/>
+      <c r="AN49" s="51"/>
+      <c r="AO49" s="51"/>
+      <c r="AP49" s="51"/>
+      <c r="AQ49" s="51"/>
     </row>
     <row r="50" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="36"/>
       <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
       <c r="E50" s="58"/>
       <c r="F50" s="60"/>
-      <c r="H50"/>
       <c r="I50"/>
       <c r="N50" s="48"/>
       <c r="O50" s="62"/>
@@ -22342,34 +22286,29 @@
       <c r="Q50" s="36"/>
       <c r="S50" s="36"/>
       <c r="T50" s="36"/>
-      <c r="U50" s="51"/>
+      <c r="U50" s="50"/>
       <c r="V50"/>
-      <c r="W50" s="51"/>
-      <c r="X50" s="51"/>
-      <c r="Y50" s="51"/>
+      <c r="X50"/>
+      <c r="Y50"/>
       <c r="Z50"/>
-      <c r="AA50" s="51"/>
-      <c r="AB50" s="51"/>
-      <c r="AC50" s="51"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
       <c r="AD50"/>
-      <c r="AE50" s="51"/>
-      <c r="AF50" s="51"/>
-      <c r="AG50" s="51"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
       <c r="AH50"/>
-      <c r="AI50" s="51"/>
-      <c r="AJ50" s="51"/>
-      <c r="AK50" s="51"/>
-      <c r="AM50" s="51"/>
-      <c r="AN50" s="51"/>
-      <c r="AO50" s="51"/>
-      <c r="AP50" s="51"/>
-      <c r="AQ50" s="51"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
     </row>
     <row r="51" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="36"/>
       <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="58"/>
       <c r="F51" s="60"/>
+      <c r="H51"/>
       <c r="I51"/>
       <c r="N51" s="48"/>
       <c r="O51" s="62"/>
@@ -22377,145 +22316,146 @@
       <c r="Q51" s="36"/>
       <c r="S51" s="36"/>
       <c r="T51" s="36"/>
-      <c r="U51" s="50"/>
+      <c r="U51" s="48"/>
       <c r="V51"/>
-      <c r="X51"/>
-      <c r="Y51"/>
+      <c r="W51" s="51"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
       <c r="Z51"/>
-      <c r="AB51"/>
-      <c r="AC51"/>
+      <c r="AA51" s="51"/>
+      <c r="AB51" s="51"/>
+      <c r="AC51" s="51"/>
       <c r="AD51"/>
-      <c r="AE51"/>
-      <c r="AF51"/>
-      <c r="AG51"/>
+      <c r="AE51" s="51"/>
+      <c r="AF51" s="51"/>
+      <c r="AG51" s="51"/>
       <c r="AH51"/>
-      <c r="AI51"/>
-      <c r="AJ51"/>
-      <c r="AK51"/>
+      <c r="AI51" s="51"/>
+      <c r="AJ51" s="51"/>
+      <c r="AK51" s="51"/>
+      <c r="AM51" s="51"/>
+      <c r="AN51" s="51"/>
+      <c r="AO51" s="51"/>
+      <c r="AP51" s="51"/>
+      <c r="AQ51" s="51"/>
     </row>
     <row r="52" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="36"/>
       <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
       <c r="E52" s="58"/>
       <c r="F52" s="60"/>
+      <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="N52" s="48"/>
       <c r="O52" s="62"/>
       <c r="P52" s="62"/>
-      <c r="Q52" s="36"/>
+      <c r="Q52" s="33"/>
       <c r="S52" s="36"/>
       <c r="T52" s="36"/>
-      <c r="U52" s="48"/>
+      <c r="U52"/>
       <c r="V52"/>
-      <c r="W52" s="51"/>
-      <c r="X52" s="51"/>
-      <c r="Y52" s="51"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
       <c r="Z52"/>
-      <c r="AA52" s="51"/>
-      <c r="AB52" s="51"/>
-      <c r="AC52" s="51"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
       <c r="AD52"/>
-      <c r="AE52" s="51"/>
-      <c r="AF52" s="51"/>
-      <c r="AG52" s="51"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
       <c r="AH52"/>
-      <c r="AI52" s="51"/>
-      <c r="AJ52" s="51"/>
-      <c r="AK52" s="51"/>
-      <c r="AM52" s="51"/>
-      <c r="AN52" s="51"/>
-      <c r="AO52" s="51"/>
-      <c r="AP52" s="51"/>
-      <c r="AQ52" s="51"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
     </row>
     <row r="53" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="36"/>
       <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
       <c r="E53" s="58"/>
       <c r="F53" s="60"/>
-      <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="N53" s="48"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="33"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="46"/>
       <c r="S53" s="36"/>
       <c r="T53" s="36"/>
-      <c r="U53"/>
-      <c r="V53"/>
-      <c r="W53"/>
-      <c r="X53"/>
-      <c r="Y53"/>
-      <c r="Z53"/>
-      <c r="AA53"/>
-      <c r="AB53"/>
-      <c r="AC53"/>
-      <c r="AD53"/>
-      <c r="AE53"/>
-      <c r="AF53"/>
-      <c r="AG53"/>
-      <c r="AH53"/>
-      <c r="AI53"/>
-      <c r="AJ53"/>
-      <c r="AK53"/>
+      <c r="U53" s="51"/>
+      <c r="W53" s="51"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="51"/>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="51"/>
+      <c r="AC53" s="51"/>
+      <c r="AE53" s="51"/>
+      <c r="AF53" s="51"/>
+      <c r="AG53" s="51"/>
+      <c r="AI53" s="51"/>
+      <c r="AJ53" s="51"/>
+      <c r="AK53" s="51"/>
+      <c r="AM53" s="51"/>
+      <c r="AN53" s="51"/>
+      <c r="AO53" s="51"/>
+      <c r="AP53" s="51"/>
+      <c r="AQ53" s="51"/>
     </row>
     <row r="54" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="36"/>
       <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="58"/>
       <c r="F54" s="60"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="46"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="33"/>
       <c r="S54" s="36"/>
       <c r="T54" s="36"/>
-      <c r="U54" s="51"/>
-      <c r="W54" s="51"/>
-      <c r="X54" s="51"/>
-      <c r="Y54" s="51"/>
-      <c r="AA54" s="51"/>
-      <c r="AB54" s="51"/>
-      <c r="AC54" s="51"/>
-      <c r="AE54" s="51"/>
-      <c r="AF54" s="51"/>
-      <c r="AG54" s="51"/>
-      <c r="AI54" s="51"/>
-      <c r="AJ54" s="51"/>
-      <c r="AK54" s="51"/>
-      <c r="AM54" s="51"/>
-      <c r="AN54" s="51"/>
-      <c r="AO54" s="51"/>
-      <c r="AP54" s="51"/>
-      <c r="AQ54" s="51"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
     </row>
     <row r="55" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="36"/>
       <c r="C55" s="46"/>
+      <c r="E55" s="58"/>
       <c r="F55" s="60"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="N55" s="48"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="33"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="46"/>
       <c r="S55" s="36"/>
       <c r="T55" s="36"/>
-      <c r="U55"/>
+      <c r="U55" s="50"/>
       <c r="V55"/>
       <c r="W55"/>
       <c r="X55"/>
       <c r="Y55"/>
       <c r="Z55"/>
+      <c r="AA55"/>
       <c r="AB55"/>
       <c r="AC55"/>
       <c r="AD55"/>
+      <c r="AE55"/>
       <c r="AF55"/>
       <c r="AG55"/>
       <c r="AH55"/>
@@ -22526,6 +22466,7 @@
     <row r="56" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="36"/>
       <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="58"/>
       <c r="F56" s="60"/>
       <c r="H56"/>
@@ -22538,92 +22479,89 @@
       <c r="T56" s="36"/>
       <c r="U56" s="50"/>
       <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
+      <c r="W56" s="51"/>
+      <c r="X56" s="51"/>
+      <c r="Y56" s="51"/>
       <c r="Z56"/>
-      <c r="AA56"/>
-      <c r="AB56"/>
-      <c r="AC56"/>
+      <c r="AA56" s="51"/>
+      <c r="AB56" s="51"/>
+      <c r="AC56" s="51"/>
       <c r="AD56"/>
-      <c r="AE56"/>
-      <c r="AF56"/>
-      <c r="AG56"/>
+      <c r="AE56" s="51"/>
+      <c r="AF56" s="51"/>
+      <c r="AG56" s="51"/>
       <c r="AH56"/>
-      <c r="AI56"/>
-      <c r="AJ56"/>
-      <c r="AK56"/>
+      <c r="AI56" s="51"/>
+      <c r="AJ56" s="51"/>
+      <c r="AK56" s="51"/>
+      <c r="AM56" s="51"/>
+      <c r="AN56" s="51"/>
+      <c r="AO56" s="51"/>
+      <c r="AP56" s="51"/>
+      <c r="AQ56" s="51"/>
     </row>
     <row r="57" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="36"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="58"/>
       <c r="F57" s="60"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="N57" s="48"/>
       <c r="O57" s="48"/>
       <c r="P57" s="48"/>
-      <c r="Q57" s="46"/>
+      <c r="Q57" s="48"/>
       <c r="S57" s="36"/>
       <c r="T57" s="36"/>
-      <c r="U57" s="50"/>
+      <c r="U57"/>
       <c r="V57"/>
-      <c r="W57" s="51"/>
-      <c r="X57" s="51"/>
-      <c r="Y57" s="51"/>
+      <c r="X57"/>
+      <c r="Y57"/>
       <c r="Z57"/>
-      <c r="AA57" s="51"/>
-      <c r="AB57" s="51"/>
-      <c r="AC57" s="51"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
       <c r="AD57"/>
-      <c r="AE57" s="51"/>
-      <c r="AF57" s="51"/>
-      <c r="AG57" s="51"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
       <c r="AH57"/>
-      <c r="AI57" s="51"/>
-      <c r="AJ57" s="51"/>
-      <c r="AK57" s="51"/>
-      <c r="AM57" s="51"/>
-      <c r="AN57" s="51"/>
-      <c r="AO57" s="51"/>
-      <c r="AP57" s="51"/>
-      <c r="AQ57" s="51"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
     </row>
     <row r="58" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="35"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="46"/>
+      <c r="E58" s="58"/>
       <c r="F58" s="60"/>
+      <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="N58" s="48"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="48"/>
+      <c r="O58" s="62"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="33"/>
       <c r="S58" s="36"/>
       <c r="T58" s="36"/>
       <c r="U58"/>
       <c r="V58"/>
+      <c r="W58"/>
       <c r="X58"/>
       <c r="Y58"/>
       <c r="Z58"/>
+      <c r="AA58"/>
       <c r="AB58"/>
       <c r="AC58"/>
       <c r="AD58"/>
+      <c r="AE58"/>
       <c r="AF58"/>
       <c r="AG58"/>
       <c r="AH58"/>
+      <c r="AI58"/>
       <c r="AJ58"/>
       <c r="AK58"/>
     </row>
     <row r="59" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="36"/>
       <c r="C59" s="46"/>
-      <c r="E59" s="58"/>
       <c r="F59" s="60"/>
-      <c r="G59"/>
-      <c r="H59"/>
       <c r="I59"/>
       <c r="N59" s="48"/>
       <c r="O59" s="62"/>
@@ -22633,58 +22571,59 @@
       <c r="T59" s="36"/>
       <c r="U59"/>
       <c r="V59"/>
-      <c r="W59"/>
       <c r="X59"/>
       <c r="Y59"/>
       <c r="Z59"/>
-      <c r="AA59"/>
       <c r="AB59"/>
       <c r="AC59"/>
       <c r="AD59"/>
-      <c r="AE59"/>
       <c r="AF59"/>
       <c r="AG59"/>
       <c r="AH59"/>
-      <c r="AI59"/>
       <c r="AJ59"/>
       <c r="AK59"/>
     </row>
     <row r="60" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="36"/>
       <c r="C60" s="46"/>
+      <c r="E60" s="58"/>
       <c r="F60" s="60"/>
       <c r="I60"/>
       <c r="N60" s="48"/>
       <c r="O60" s="62"/>
       <c r="P60" s="62"/>
-      <c r="Q60" s="33"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
+      <c r="Q60" s="62"/>
+      <c r="S60" s="16"/>
       <c r="U60"/>
       <c r="V60"/>
+      <c r="W60"/>
       <c r="X60"/>
       <c r="Y60"/>
       <c r="Z60"/>
+      <c r="AA60"/>
       <c r="AB60"/>
       <c r="AC60"/>
       <c r="AD60"/>
+      <c r="AE60"/>
       <c r="AF60"/>
       <c r="AG60"/>
       <c r="AH60"/>
+      <c r="AI60"/>
       <c r="AJ60"/>
       <c r="AK60"/>
     </row>
     <row r="61" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="36"/>
       <c r="C61" s="46"/>
-      <c r="E61" s="58"/>
       <c r="F61" s="60"/>
+      <c r="H61"/>
       <c r="I61"/>
       <c r="N61" s="48"/>
       <c r="O61" s="62"/>
       <c r="P61" s="62"/>
-      <c r="Q61" s="62"/>
-      <c r="S61" s="16"/>
+      <c r="Q61" s="33"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
       <c r="U61"/>
       <c r="V61"/>
       <c r="W61"/>
@@ -22712,9 +22651,7 @@
       <c r="N62" s="48"/>
       <c r="O62" s="62"/>
       <c r="P62" s="62"/>
-      <c r="Q62" s="33"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
+      <c r="Q62" s="62"/>
       <c r="U62"/>
       <c r="V62"/>
       <c r="W62"/>
@@ -22734,7 +22671,7 @@
       <c r="AK62"/>
     </row>
     <row r="63" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="36"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="46"/>
       <c r="F63" s="60"/>
       <c r="H63"/>
@@ -22742,137 +22679,109 @@
       <c r="N63" s="48"/>
       <c r="O63" s="62"/>
       <c r="P63" s="62"/>
-      <c r="Q63" s="62"/>
+      <c r="Q63" s="33"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
       <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
       <c r="X63"/>
-      <c r="Y63"/>
       <c r="Z63"/>
-      <c r="AA63"/>
       <c r="AB63"/>
       <c r="AC63"/>
-      <c r="AD63"/>
-      <c r="AE63"/>
       <c r="AF63"/>
-      <c r="AG63"/>
       <c r="AH63"/>
-      <c r="AI63"/>
       <c r="AJ63"/>
       <c r="AK63"/>
     </row>
-    <row r="64" spans="2:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="35"/>
-      <c r="C64" s="46"/>
+    <row r="64" spans="2:43" x14ac:dyDescent="0.15">
       <c r="F64" s="60"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="33"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
-      <c r="U64"/>
-      <c r="X64"/>
-      <c r="Z64"/>
-      <c r="AB64"/>
-      <c r="AC64"/>
-      <c r="AF64"/>
-      <c r="AH64"/>
-      <c r="AJ64"/>
-      <c r="AK64"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F65" s="60"/>
+      <c r="F65" s="49"/>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F66" s="49"/>
+      <c r="F66" s="51"/>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F67" s="51"/>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F68" s="51"/>
+      <c r="F68" s="49"/>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F69" s="49"/>
+      <c r="F69" s="48"/>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F70" s="48"/>
+      <c r="F70" s="50"/>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F71" s="50"/>
+      <c r="F71" s="49"/>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F72" s="49"/>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F73" s="49"/>
+      <c r="F73" s="48"/>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F74" s="48"/>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F75" s="48"/>
+      <c r="F75" s="49"/>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F76" s="49"/>
+      <c r="F76" s="48"/>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F77" s="48"/>
+      <c r="F77" s="46"/>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F78" s="46"/>
+      <c r="F78" s="51"/>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F79" s="51"/>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F80" s="51"/>
+      <c r="F80" s="46"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F81" s="46"/>
+      <c r="F81" s="51"/>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F82" s="51"/>
+      <c r="F82" s="50"/>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F83" s="50"/>
+      <c r="F83" s="46"/>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F84" s="46"/>
+      <c r="F84" s="45"/>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F85" s="45"/>
+      <c r="F85" s="48"/>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F86" s="48"/>
+      <c r="F86" s="50"/>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F87" s="50"/>
+      <c r="F87" s="49"/>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F88" s="49"/>
+      <c r="F88" s="51"/>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F89" s="51"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F90" s="49"/>
+      <c r="F89" s="49"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BF18" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState ref="A2:BE64">
-      <sortCondition ref="E1:E18"/>
+  <autoFilter ref="A1:BF17" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState ref="A2:BE63">
+      <sortCondition ref="E1:E17"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="F1 F66:F90 E1:E2 E4:E90">
+  <conditionalFormatting sqref="F65:F89 E1:F1 E3:E89">
     <cfRule type="duplicateValues" dxfId="3" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22919,34 +22828,34 @@
         <v>9</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>215</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>216</v>
       </c>
       <c r="O1" s="39"/>
     </row>
@@ -22955,28 +22864,28 @@
         <v>7</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>218</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>219</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J2" s="29">
         <v>1.9</v>
@@ -22996,28 +22905,28 @@
         <v>7</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>222</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>223</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J3" s="29">
         <v>1.5</v>
@@ -23037,22 +22946,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F4" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>224</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>225</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>8</v>
@@ -23074,20 +22983,20 @@
         <v>7</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>217</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>218</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>8</v>
@@ -23109,28 +23018,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="F6" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="G6" s="25" t="s">
         <v>228</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>229</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J6" s="29">
         <v>0.7</v>
@@ -23150,28 +23059,28 @@
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>233</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J7" s="29">
         <v>1.3</v>
@@ -23191,28 +23100,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J8" s="29">
         <v>1.9</v>
@@ -23232,26 +23141,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>235</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>236</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J9" s="29">
         <v>1.6</v>
@@ -23271,22 +23180,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F10" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>224</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>225</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>8</v>
@@ -23308,28 +23217,28 @@
         <v>7</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J11" s="29">
         <v>1.6</v>
@@ -23349,26 +23258,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D12" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J12" s="29">
         <v>1.2</v>
@@ -23388,22 +23297,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F13" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>224</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>225</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>8</v>
@@ -23425,19 +23334,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="26" t="s">
@@ -23460,28 +23369,28 @@
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F15" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="25" t="s">
         <v>242</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>243</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J15" s="29">
         <v>2.2000000000000002</v>
@@ -23501,28 +23410,28 @@
         <v>7</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="F16" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="25" t="s">
         <v>245</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>246</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J16" s="29">
         <v>1.9</v>
@@ -23542,22 +23451,22 @@
         <v>7</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F17" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>224</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>225</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>8</v>
@@ -23579,20 +23488,20 @@
         <v>7</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H18" s="26" t="s">
         <v>8</v>
@@ -23614,22 +23523,22 @@
         <v>7</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>240</v>
-      </c>
       <c r="F19" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>224</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>225</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>8</v>
@@ -23651,28 +23560,28 @@
         <v>7</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H20" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J20" s="29">
         <v>1.4</v>
@@ -23692,22 +23601,22 @@
         <v>7</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F21" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>224</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>225</v>
       </c>
       <c r="H21" s="26" t="s">
         <v>8</v>
@@ -23729,28 +23638,28 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D22" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>227</v>
-      </c>
       <c r="F22" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="25" t="s">
         <v>248</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>249</v>
       </c>
       <c r="H22" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J22" s="29">
         <v>1.1000000000000001</v>
@@ -23770,28 +23679,28 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D23" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F23" s="25">
         <v>2</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H23" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J23" s="29">
         <v>1.6</v>
@@ -23811,19 +23720,19 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="26" t="s">
@@ -23846,28 +23755,28 @@
         <v>7</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="F25" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="36" t="s">
         <v>252</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>253</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I25" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J25" s="29">
         <v>1.08</v>
@@ -23889,28 +23798,28 @@
         <v>7</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F26" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H26" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J26" s="29">
         <v>1.08</v>
@@ -23932,16 +23841,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
@@ -23949,7 +23858,7 @@
         <v>8</v>
       </c>
       <c r="I27" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J27" s="29">
         <v>1.17</v>
@@ -23971,16 +23880,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>227</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
@@ -23988,7 +23897,7 @@
         <v>8</v>
       </c>
       <c r="I28" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J28" s="29">
         <v>1.17</v>
@@ -24010,22 +23919,22 @@
         <v>7</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F29" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H29" s="26" t="s">
         <v>8</v>
@@ -24047,26 +23956,26 @@
         <v>7</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F30" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I30" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J30" s="29">
         <v>0.53</v>
@@ -24088,16 +23997,16 @@
         <v>7</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
@@ -24105,7 +24014,7 @@
         <v>8</v>
       </c>
       <c r="I31" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J31" s="29">
         <v>1.7</v>
@@ -24127,16 +24036,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
@@ -24144,7 +24053,7 @@
         <v>8</v>
       </c>
       <c r="I32" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J32" s="29">
         <v>1.7</v>
@@ -24166,16 +24075,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
@@ -24199,28 +24108,28 @@
         <v>7</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H34" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J34" s="29">
         <v>2</v>
@@ -24240,26 +24149,26 @@
         <v>7</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D35" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H35" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J35" s="29">
         <v>9</v>
@@ -24281,28 +24190,28 @@
         <v>7</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F36" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" s="25" t="s">
         <v>257</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>258</v>
       </c>
       <c r="H36" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J36" s="29">
         <v>9</v>
@@ -24324,28 +24233,28 @@
         <v>7</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F37" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" s="36" t="s">
         <v>259</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>260</v>
       </c>
       <c r="H37" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J37" s="29">
         <v>0.78</v>
@@ -24365,28 +24274,28 @@
         <v>7</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>240</v>
-      </c>
       <c r="F38" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J38" s="29">
         <v>1.38</v>
@@ -24408,28 +24317,28 @@
         <v>7</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H39" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J39" s="29">
         <v>1.68</v>
@@ -24451,22 +24360,22 @@
         <v>7</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F40" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G40" s="25" t="s">
         <v>224</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>225</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>8</v>
@@ -24488,28 +24397,28 @@
         <v>7</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="E41" s="25" t="s">
-        <v>252</v>
-      </c>
       <c r="F41" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J41" s="29">
         <v>1.3</v>
@@ -24529,28 +24438,28 @@
         <v>7</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E42" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F42" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="G42" s="25" t="s">
         <v>264</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>265</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J42" s="29">
         <v>1.5</v>
@@ -24570,19 +24479,19 @@
         <v>7</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="26" t="s">
@@ -24605,28 +24514,28 @@
         <v>7</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D44" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="E44" s="25" t="s">
-        <v>252</v>
-      </c>
       <c r="F44" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" s="25" t="s">
         <v>266</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>267</v>
       </c>
       <c r="H44" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J44" s="29">
         <v>1.1100000000000001</v>
@@ -24648,28 +24557,28 @@
         <v>7</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E45" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F45" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="G45" s="25" t="s">
         <v>268</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>269</v>
       </c>
       <c r="H45" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J45" s="29">
         <v>1.1100000000000001</v>
@@ -24691,28 +24600,28 @@
         <v>7</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F46" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="G46" s="25" t="s">
         <v>270</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>271</v>
       </c>
       <c r="H46" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J46" s="27"/>
       <c r="K46" s="26"/>
@@ -24730,28 +24639,28 @@
         <v>7</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E47" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E47" s="25" t="s">
-        <v>240</v>
-      </c>
       <c r="F47" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="G47" s="25" t="s">
         <v>270</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>271</v>
       </c>
       <c r="H47" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J47" s="27"/>
       <c r="K47" s="26"/>
@@ -24769,22 +24678,22 @@
         <v>7</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>8</v>
@@ -24806,22 +24715,22 @@
         <v>7</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H49" s="26" t="s">
         <v>8</v>
@@ -24843,34 +24752,34 @@
         <v>7</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H50" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J50" s="29">
         <v>1.44</v>
       </c>
       <c r="K50" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="1"/>
@@ -24886,34 +24795,34 @@
         <v>7</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H51" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J51" s="29">
         <v>1.44</v>
       </c>
       <c r="K51" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="1"/>
@@ -24929,26 +24838,26 @@
         <v>7</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="25" t="s">
         <v>217</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>218</v>
       </c>
       <c r="F52" s="25"/>
       <c r="G52" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J52" s="27">
         <v>1.57</v>
@@ -24970,26 +24879,26 @@
         <v>7</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>227</v>
       </c>
       <c r="F53" s="25"/>
       <c r="G53" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J53" s="29">
         <v>1.27</v>
@@ -25011,22 +24920,22 @@
         <v>7</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E54" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F54" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" s="25" t="s">
         <v>224</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>225</v>
       </c>
       <c r="H54" s="26" t="s">
         <v>8</v>
@@ -25048,22 +24957,22 @@
         <v>7</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H55" s="26" t="s">
         <v>8</v>
@@ -25085,28 +24994,28 @@
         <v>7</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="E56" s="25" t="s">
-        <v>245</v>
-      </c>
       <c r="F56" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J56" s="27"/>
       <c r="K56" s="26"/>
@@ -25124,28 +25033,28 @@
         <v>7</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E57" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F57" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H57" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J57" s="27"/>
       <c r="K57" s="26"/>
@@ -25163,16 +25072,16 @@
         <v>7</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
@@ -25180,7 +25089,7 @@
         <v>8</v>
       </c>
       <c r="I58" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J58" s="29">
         <v>1.26</v>
@@ -25202,16 +25111,16 @@
         <v>7</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
@@ -25219,7 +25128,7 @@
         <v>8</v>
       </c>
       <c r="I59" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J59" s="29">
         <v>2.2599999999999998</v>
@@ -25241,16 +25150,16 @@
         <v>7</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
@@ -25274,26 +25183,26 @@
         <v>7</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H61" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I61" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J61" s="29">
         <v>1.29</v>
@@ -25315,26 +25224,26 @@
         <v>7</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="F62" s="25"/>
       <c r="G62" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H62" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I62" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J62" s="29">
         <v>1.22</v>
@@ -25356,20 +25265,20 @@
         <v>7</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F63" s="25"/>
       <c r="G63" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H63" s="26" t="s">
         <v>8</v>
@@ -25391,28 +25300,28 @@
         <v>7</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D64" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E64" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E64" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F64" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H64" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J64" s="29">
         <v>1.03</v>
@@ -25432,28 +25341,28 @@
         <v>7</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D65" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="25" t="s">
-        <v>227</v>
-      </c>
       <c r="F65" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="G65" s="25" t="s">
         <v>279</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>280</v>
       </c>
       <c r="H65" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I65" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J65" s="29">
         <v>0.94</v>
@@ -25473,28 +25382,28 @@
         <v>7</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D66" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E66" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E66" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F66" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H66" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I66" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J66" s="29">
         <v>0.85</v>
@@ -25514,28 +25423,28 @@
         <v>7</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D67" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E67" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F67" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="G67" s="25" t="s">
         <v>282</v>
-      </c>
-      <c r="G67" s="25" t="s">
-        <v>283</v>
       </c>
       <c r="H67" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I67" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J67" s="29">
         <v>2</v>
@@ -25555,28 +25464,28 @@
         <v>7</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D68" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E68" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="25" t="s">
-        <v>227</v>
-      </c>
       <c r="F68" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H68" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J68" s="29">
         <v>2</v>
@@ -25596,22 +25505,22 @@
         <v>7</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D69" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E69" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E69" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F69" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G69" s="25" t="s">
         <v>224</v>
-      </c>
-      <c r="G69" s="25" t="s">
-        <v>225</v>
       </c>
       <c r="H69" s="26" t="s">
         <v>8</v>
@@ -25633,22 +25542,22 @@
         <v>7</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H70" s="26" t="s">
         <v>8</v>
@@ -25670,28 +25579,28 @@
         <v>7</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D71" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E71" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E71" s="25" t="s">
-        <v>240</v>
-      </c>
       <c r="F71" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G71" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H71" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J71" s="29">
         <v>1.3</v>
@@ -25711,28 +25620,28 @@
         <v>7</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H72" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J72" s="29">
         <v>1.54</v>
@@ -25752,22 +25661,22 @@
         <v>7</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F73" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G73" s="25" t="s">
         <v>224</v>
-      </c>
-      <c r="G73" s="25" t="s">
-        <v>225</v>
       </c>
       <c r="H73" s="26" t="s">
         <v>8</v>
@@ -25789,28 +25698,28 @@
         <v>7</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D74" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E74" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E74" s="25" t="s">
-        <v>240</v>
-      </c>
       <c r="F74" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H74" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J74" s="29">
         <v>1.4</v>
@@ -25830,28 +25739,28 @@
         <v>7</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H75" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I75" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J75" s="29">
         <v>2</v>
@@ -25871,16 +25780,16 @@
         <v>7</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
@@ -25888,7 +25797,7 @@
         <v>8</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J76" s="29">
         <v>1.083</v>
@@ -25910,16 +25819,16 @@
         <v>7</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D77" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" s="36" t="s">
         <v>251</v>
-      </c>
-      <c r="E77" s="36" t="s">
-        <v>252</v>
       </c>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
@@ -25927,7 +25836,7 @@
         <v>8</v>
       </c>
       <c r="I77" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J77" s="29">
         <v>1.038</v>
@@ -25949,16 +25858,16 @@
         <v>7</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D78" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" s="36" t="s">
         <v>217</v>
-      </c>
-      <c r="E78" s="36" t="s">
-        <v>218</v>
       </c>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
@@ -25982,16 +25891,16 @@
         <v>7</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F79" s="25"/>
       <c r="G79" s="25"/>
@@ -26012,16 +25921,16 @@
         <v>7</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D80" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E80" s="25" t="s">
         <v>244</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>245</v>
       </c>
       <c r="F80" s="25"/>
       <c r="G80" s="25"/>
@@ -26045,16 +25954,16 @@
         <v>7</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D81" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E81" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F81" s="25"/>
       <c r="G81" s="25"/>
@@ -26062,7 +25971,7 @@
         <v>8</v>
       </c>
       <c r="I81" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J81" s="29">
         <v>1.77</v>
@@ -26084,28 +25993,28 @@
         <v>7</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H82" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I82" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J82" s="30">
         <v>1.4</v>
@@ -26125,28 +26034,28 @@
         <v>7</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D83" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E83" s="25" t="s">
-        <v>240</v>
-      </c>
       <c r="F83" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H83" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J83" s="30">
         <v>1.3</v>
@@ -26166,22 +26075,22 @@
         <v>7</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H84" s="26" t="s">
         <v>8</v>
@@ -26201,28 +26110,28 @@
         <v>7</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D85" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E85" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E85" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F85" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H85" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I85" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J85" s="30">
         <v>0.73</v>
@@ -26244,22 +26153,22 @@
         <v>7</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D86" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E86" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E86" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F86" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G86" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H86" s="26" t="s">
         <v>8</v>
@@ -26279,28 +26188,28 @@
         <v>7</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D87" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G87" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H87" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I87" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J87" s="30">
         <v>1.554</v>
@@ -26322,22 +26231,22 @@
         <v>7</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H88" s="26" t="s">
         <v>8</v>
@@ -26357,26 +26266,26 @@
         <v>7</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D89" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E89" s="25" t="s">
         <v>244</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>245</v>
       </c>
       <c r="F89" s="25"/>
       <c r="G89" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H89" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J89" s="30">
         <v>1.23</v>
@@ -26398,26 +26307,26 @@
         <v>7</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D90" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E90" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F90" s="25"/>
       <c r="G90" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H90" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I90" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J90" s="30">
         <v>1.39</v>
@@ -26439,16 +26348,16 @@
         <v>7</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H91" s="26" t="s">
         <v>8</v>
@@ -26468,16 +26377,16 @@
         <v>7</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D92" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E92" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="H92" s="26" t="s">
         <v>8</v>
@@ -26497,22 +26406,22 @@
         <v>7</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H93" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I93" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J93" s="30">
         <v>1.37</v>
@@ -26534,34 +26443,34 @@
         <v>7</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H94" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I94" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J94" s="30">
         <v>1.19</v>
       </c>
       <c r="K94" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L94" t="str">
         <f t="shared" si="2"/>
@@ -26577,22 +26486,22 @@
         <v>7</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="E95" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="E95" s="25" t="s">
-        <v>236</v>
-      </c>
       <c r="F95" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G95" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H95" s="26" t="s">
         <v>8</v>
@@ -26612,22 +26521,22 @@
         <v>7</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D96" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E96" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E96" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F96" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G96" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H96" s="26" t="s">
         <v>8</v>
@@ -26647,16 +26556,16 @@
         <v>7</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C97" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D97" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
@@ -26678,16 +26587,16 @@
         <v>7</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D98" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="E98" s="25" t="s">
         <v>244</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>245</v>
       </c>
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
@@ -26695,7 +26604,7 @@
         <v>8</v>
       </c>
       <c r="I98" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J98" s="30">
         <v>1.1399999999999999</v>
@@ -26717,16 +26626,16 @@
         <v>7</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D99" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E99" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
@@ -26734,7 +26643,7 @@
         <v>8</v>
       </c>
       <c r="I99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J99" s="30">
         <v>1.1399999999999999</v>
@@ -26756,16 +26665,16 @@
         <v>7</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D100" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E100" s="25" t="s">
         <v>217</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>218</v>
       </c>
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
@@ -26787,16 +26696,16 @@
         <v>7</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D101" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E101" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="E101" s="25" t="s">
-        <v>227</v>
       </c>
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
@@ -26804,7 +26713,7 @@
         <v>8</v>
       </c>
       <c r="I101" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J101" s="30">
         <v>1.1100000000000001</v>
@@ -26826,16 +26735,16 @@
         <v>7</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D102" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E102" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
@@ -26843,7 +26752,7 @@
         <v>8</v>
       </c>
       <c r="I102" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J102" s="30">
         <v>1.1100000000000001</v>
@@ -26863,16 +26772,16 @@
         <v>7</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D103" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
@@ -26894,16 +26803,16 @@
         <v>7</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D104" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E104" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
@@ -26911,7 +26820,7 @@
         <v>8</v>
       </c>
       <c r="I104" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J104" s="30">
         <v>1.1599999999999999</v>
@@ -26933,16 +26842,16 @@
         <v>7</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C105" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D105" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
@@ -26950,7 +26859,7 @@
         <v>8</v>
       </c>
       <c r="I105" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J105" s="30">
         <v>1.1599999999999999</v>
@@ -26972,22 +26881,22 @@
         <v>7</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F106" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="G106" s="36" t="s">
         <v>224</v>
-      </c>
-      <c r="G106" s="36" t="s">
-        <v>225</v>
       </c>
       <c r="H106" s="26" t="s">
         <v>8</v>
@@ -27007,28 +26916,28 @@
         <v>7</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D107" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="E107" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="E107" s="25" t="s">
-        <v>252</v>
-      </c>
       <c r="F107" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G107" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H107" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I107" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J107" s="30">
         <v>0.99</v>
@@ -27050,26 +26959,26 @@
         <v>7</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C108" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D108" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E108" s="25" t="s">
         <v>217</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>218</v>
       </c>
       <c r="F108" s="36"/>
       <c r="G108" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H108" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I108" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J108" s="30">
         <v>1.1499999999999999</v>
@@ -27091,16 +27000,16 @@
         <v>7</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D109" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E109" s="25" t="s">
         <v>217</v>
-      </c>
-      <c r="E109" s="25" t="s">
-        <v>218</v>
       </c>
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
@@ -27108,7 +27017,7 @@
         <v>8</v>
       </c>
       <c r="I109" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J109" s="30">
         <v>1.1000000000000001</v>
@@ -27130,16 +27039,16 @@
         <v>7</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C110" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D110" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E110" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>227</v>
       </c>
       <c r="F110" s="36"/>
       <c r="G110" s="36"/>
@@ -27147,7 +27056,7 @@
         <v>8</v>
       </c>
       <c r="I110" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J110" s="30">
         <v>1.1000000000000001</v>
@@ -27169,16 +27078,16 @@
         <v>7</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D111" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E111" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F111" s="36"/>
       <c r="G111" s="36"/>
@@ -27200,16 +27109,16 @@
         <v>7</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C112" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F112" s="36"/>
       <c r="G112" s="36"/>
@@ -27217,7 +27126,7 @@
         <v>8</v>
       </c>
       <c r="I112" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J112" s="30">
         <v>1.62</v>
@@ -27239,19 +27148,19 @@
         <v>7</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C113" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D113" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E113" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E113" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F113" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G113" s="36"/>
       <c r="H113" s="26" t="s">
@@ -27272,22 +27181,22 @@
         <v>7</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C114" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D114" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F114" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G114" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H114" s="26" t="s">
         <v>8</v>
@@ -27307,28 +27216,28 @@
         <v>7</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C115" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D115" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E115" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E115" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F115" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="G115" s="36" t="s">
         <v>296</v>
-      </c>
-      <c r="G115" s="36" t="s">
-        <v>297</v>
       </c>
       <c r="H115" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I115" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J115" s="30">
         <v>1.42</v>
@@ -27350,26 +27259,26 @@
         <v>7</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C116" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D116" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E116" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>227</v>
       </c>
       <c r="F116" s="36"/>
       <c r="G116" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H116" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I116" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J116" s="30">
         <v>1.42</v>
@@ -27391,22 +27300,22 @@
         <v>7</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C117" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D117" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E117" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E117" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F117" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G117" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H117" s="26" t="s">
         <v>8</v>
@@ -27426,28 +27335,28 @@
         <v>7</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C118" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D118" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E118" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E118" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F118" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G118" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H118" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I118" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J118" s="30">
         <v>1.69</v>
@@ -27469,28 +27378,28 @@
         <v>7</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C119" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D119" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E119" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="E119" s="25" t="s">
-        <v>227</v>
-      </c>
       <c r="F119" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G119" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H119" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I119" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J119" s="30">
         <v>1.69</v>
@@ -27512,20 +27421,20 @@
         <v>7</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C120" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D120" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E120" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F120" s="36"/>
       <c r="G120" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H120" s="26" t="s">
         <v>8</v>
@@ -27546,28 +27455,28 @@
         <v>7</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C121" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D121" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E121" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E121" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F121" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G121" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H121" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I121" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J121" s="30">
         <v>2.4</v>
@@ -27587,28 +27496,28 @@
         <v>7</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C122" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D122" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E122" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="E122" s="25" t="s">
-        <v>227</v>
-      </c>
       <c r="F122" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G122" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H122" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I122" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J122" s="30">
         <v>2.4</v>
@@ -27630,22 +27539,22 @@
         <v>7</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C123" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D123" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E123" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E123" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F123" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G123" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H123" s="26" t="s">
         <v>8</v>
@@ -27665,26 +27574,26 @@
         <v>7</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C124" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F124" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G124" s="36"/>
       <c r="H124" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I124" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J124" s="30">
         <v>1.7</v>
@@ -27706,26 +27615,26 @@
         <v>7</v>
       </c>
       <c r="B125" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C125" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D125" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="E125" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="E125" s="25" t="s">
-        <v>245</v>
-      </c>
       <c r="F125" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G125" s="36"/>
       <c r="H125" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I125" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J125" s="30">
         <v>1.7</v>
@@ -27747,19 +27656,19 @@
         <v>7</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C126" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D126" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E126" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E126" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F126" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G126" s="36"/>
       <c r="H126" s="26" t="s">
@@ -27782,16 +27691,16 @@
         <v>7</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D127" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E127" s="25" t="s">
         <v>217</v>
-      </c>
-      <c r="E127" s="25" t="s">
-        <v>218</v>
       </c>
       <c r="F127" s="36"/>
       <c r="G127" s="36"/>
@@ -27815,16 +27724,16 @@
         <v>7</v>
       </c>
       <c r="B128" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D128" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E128" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>227</v>
       </c>
       <c r="F128" s="36"/>
       <c r="G128" s="36"/>
@@ -27832,7 +27741,7 @@
         <v>8</v>
       </c>
       <c r="I128" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J128" s="30">
         <v>1.18</v>
@@ -27854,16 +27763,16 @@
         <v>7</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D129" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E129" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="E129" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F129" s="36"/>
       <c r="G129" s="36"/>
@@ -27871,7 +27780,7 @@
         <v>8</v>
       </c>
       <c r="I129" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J129" s="30">
         <v>1.18</v>
@@ -27891,22 +27800,22 @@
         <v>7</v>
       </c>
       <c r="B130" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C130" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D130" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G130" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H130" s="26" t="s">
         <v>8</v>
@@ -27926,28 +27835,28 @@
         <v>7</v>
       </c>
       <c r="B131" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C131" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D131" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E131" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E131" s="25" t="s">
-        <v>240</v>
-      </c>
       <c r="F131" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G131" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H131" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I131" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J131" s="30">
         <v>1.51</v>
@@ -27967,28 +27876,28 @@
         <v>7</v>
       </c>
       <c r="B132" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C132" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D132" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F132" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G132" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H132" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I132" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J132" s="30">
         <v>2.57</v>
@@ -28008,22 +27917,22 @@
         <v>7</v>
       </c>
       <c r="B133" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C133" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D133" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E133" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="E133" s="36" t="s">
-        <v>218</v>
-      </c>
       <c r="F133" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G133" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H133" s="26" t="s">
         <v>8</v>
@@ -28043,28 +27952,28 @@
         <v>7</v>
       </c>
       <c r="B134" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C134" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D134" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E134" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F134" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G134" s="36" t="s">
         <v>306</v>
-      </c>
-      <c r="G134" s="36" t="s">
-        <v>307</v>
       </c>
       <c r="H134" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I134" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J134" s="30">
         <v>1.49</v>
@@ -28086,28 +27995,28 @@
         <v>7</v>
       </c>
       <c r="B135" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D135" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E135" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="E135" s="36" t="s">
-        <v>232</v>
-      </c>
       <c r="F135" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="G135" s="36" t="s">
         <v>308</v>
-      </c>
-      <c r="G135" s="36" t="s">
-        <v>309</v>
       </c>
       <c r="H135" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I135" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J135" s="30">
         <v>1.02</v>
@@ -28129,10 +28038,10 @@
         <v>7</v>
       </c>
       <c r="B136" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D136" s="36"/>
       <c r="E136" s="25"/>
@@ -28156,22 +28065,22 @@
         <v>7</v>
       </c>
       <c r="B137" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C137" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F137" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="G137" s="36" t="s">
         <v>224</v>
-      </c>
-      <c r="G137" s="36" t="s">
-        <v>225</v>
       </c>
       <c r="H137" s="26" t="s">
         <v>8</v>
@@ -28191,28 +28100,28 @@
         <v>7</v>
       </c>
       <c r="B138" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C138" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D138" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E138" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E138" s="25" t="s">
-        <v>240</v>
-      </c>
       <c r="F138" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G138" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H138" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I138" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J138" s="30">
         <v>1.07</v>
@@ -28234,28 +28143,28 @@
         <v>7</v>
       </c>
       <c r="B139" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C139" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D139" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F139" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G139" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H139" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I139" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J139" s="30">
         <v>1.07</v>
@@ -28277,19 +28186,19 @@
         <v>7</v>
       </c>
       <c r="B140" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C140" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D140" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E140" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E140" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F140" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G140" s="36"/>
       <c r="H140" s="26" t="s">
@@ -28310,19 +28219,19 @@
         <v>7</v>
       </c>
       <c r="B141" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C141" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D141" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E141" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E141" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F141" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G141" s="36"/>
       <c r="H141" s="26" t="s">
@@ -28343,16 +28252,16 @@
         <v>7</v>
       </c>
       <c r="B142" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C142" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D142" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E142" s="25" t="s">
         <v>221</v>
-      </c>
-      <c r="E142" s="25" t="s">
-        <v>222</v>
       </c>
       <c r="F142" s="36"/>
       <c r="G142" s="36"/>
@@ -28376,28 +28285,28 @@
         <v>7</v>
       </c>
       <c r="B143" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C143" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D143" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F143" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G143" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H143" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I143" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J143" s="30">
         <v>1.4</v>
@@ -28419,28 +28328,28 @@
         <v>7</v>
       </c>
       <c r="B144" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C144" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E144" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F144" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G144" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H144" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I144" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J144" s="30">
         <v>1.2</v>
@@ -28460,19 +28369,19 @@
         <v>7</v>
       </c>
       <c r="B145" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D145" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E145" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="E145" s="36" t="s">
-        <v>240</v>
-      </c>
       <c r="F145" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G145" s="36"/>
       <c r="H145" s="26" t="s">
@@ -28495,19 +28404,19 @@
         <v>7</v>
       </c>
       <c r="B146" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D146" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E146" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F146" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G146" s="36"/>
       <c r="H146" s="26" t="s">
@@ -28530,32 +28439,32 @@
         <v>7</v>
       </c>
       <c r="B147" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C147" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D147" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E147" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F147" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G147" s="36"/>
       <c r="H147" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I147" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J147" s="30">
         <v>1.17</v>
       </c>
       <c r="K147" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L147" t="str">
         <f t="shared" si="4"/>
@@ -28571,19 +28480,19 @@
         <v>7</v>
       </c>
       <c r="B148" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D148" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E148" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F148" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G148" s="36"/>
       <c r="H148" s="26" t="s">
@@ -28606,19 +28515,19 @@
         <v>7</v>
       </c>
       <c r="B149" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C149" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D149" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E149" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F149" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G149" s="36"/>
       <c r="H149" s="26" t="s">
@@ -28641,32 +28550,32 @@
         <v>7</v>
       </c>
       <c r="B150" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C150" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D150" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E150" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E150" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F150" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G150" s="36"/>
       <c r="H150" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I150" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J150" s="30">
         <v>1.1499999999999999</v>
       </c>
       <c r="K150" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L150" t="str">
         <f t="shared" si="4"/>
@@ -28682,19 +28591,19 @@
         <v>7</v>
       </c>
       <c r="B151" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C151" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D151" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F151" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G151" s="36"/>
       <c r="H151" s="26" t="s">
@@ -28717,19 +28626,19 @@
         <v>7</v>
       </c>
       <c r="B152" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D152" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E152" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E152" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F152" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G152" s="36"/>
       <c r="H152" s="26" t="s">
@@ -28752,22 +28661,22 @@
         <v>7</v>
       </c>
       <c r="B153" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C153" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D153" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E153" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E153" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F153" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="G153" s="36" t="s">
         <v>224</v>
-      </c>
-      <c r="G153" s="36" t="s">
-        <v>225</v>
       </c>
       <c r="H153" s="26" t="s">
         <v>8</v>
@@ -28787,34 +28696,34 @@
         <v>7</v>
       </c>
       <c r="B154" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C154" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D154" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E154" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="E154" s="25" t="s">
+      <c r="F154" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="F154" s="36" t="s">
-        <v>228</v>
-      </c>
       <c r="G154" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H154" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I154" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J154" s="30">
         <v>1.1299999999999999</v>
       </c>
       <c r="K154" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L154" t="str">
         <f t="shared" si="4"/>
@@ -28830,34 +28739,34 @@
         <v>7</v>
       </c>
       <c r="B155" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C155" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D155" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E155" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E155" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F155" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G155" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H155" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I155" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J155" s="30">
         <v>1.1299999999999999</v>
       </c>
       <c r="K155" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L155" t="str">
         <f t="shared" si="4"/>
@@ -28873,32 +28782,32 @@
         <v>7</v>
       </c>
       <c r="B156" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D156" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E156" s="25" t="s">
         <v>217</v>
-      </c>
-      <c r="E156" s="25" t="s">
-        <v>218</v>
       </c>
       <c r="F156" s="36"/>
       <c r="G156" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H156" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I156" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J156" s="30">
         <v>1.1499999999999999</v>
       </c>
       <c r="K156" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L156" t="str">
         <f t="shared" si="4"/>
@@ -28914,16 +28823,16 @@
         <v>7</v>
       </c>
       <c r="B157" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C157" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D157" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F157" s="36"/>
       <c r="G157" s="36"/>
@@ -28931,7 +28840,7 @@
         <v>8</v>
       </c>
       <c r="I157" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J157" s="30"/>
       <c r="K157" s="51"/>
@@ -28949,16 +28858,16 @@
         <v>7</v>
       </c>
       <c r="B158" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C158" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D158" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E158" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="E158" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F158" s="36"/>
       <c r="G158" s="36"/>
@@ -28966,7 +28875,7 @@
         <v>8</v>
       </c>
       <c r="I158" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J158" s="30"/>
       <c r="K158" s="51"/>
@@ -28984,28 +28893,28 @@
         <v>7</v>
       </c>
       <c r="B159" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C159" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D159" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E159" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="E159" s="36" t="s">
-        <v>240</v>
-      </c>
       <c r="F159" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G159" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H159" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I159" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J159" s="30">
         <v>1.3</v>
@@ -29025,26 +28934,26 @@
         <v>7</v>
       </c>
       <c r="B160" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D160" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E160" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E160" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F160" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G160" s="36"/>
       <c r="H160" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I160" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J160" s="30">
         <v>1.33</v>
@@ -29066,20 +28975,20 @@
         <v>7</v>
       </c>
       <c r="B161" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C161" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D161" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E161" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F161" s="36"/>
       <c r="G161" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H161" s="26" t="s">
         <v>8</v>
@@ -29099,28 +29008,28 @@
         <v>7</v>
       </c>
       <c r="B162" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C162" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D162" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E162" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="E162" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="F162" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G162" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H162" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I162" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J162" s="30">
         <v>1.26</v>
@@ -29140,28 +29049,28 @@
         <v>7</v>
       </c>
       <c r="B163" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C163" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D163" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E163" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="E163" s="25" t="s">
-        <v>227</v>
-      </c>
       <c r="F163" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G163" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H163" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I163" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J163" s="30">
         <v>1.26</v>
@@ -29181,22 +29090,22 @@
         <v>7</v>
       </c>
       <c r="B164" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C164" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D164" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E164" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E164" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F164" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="G164" s="36" t="s">
         <v>224</v>
-      </c>
-      <c r="G164" s="36" t="s">
-        <v>225</v>
       </c>
       <c r="H164" s="26" t="s">
         <v>8</v>
@@ -29216,26 +29125,26 @@
         <v>7</v>
       </c>
       <c r="B165" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D165" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F165" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G165" s="36"/>
       <c r="H165" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I165" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J165" s="30">
         <v>1.1000000000000001</v>
@@ -29257,22 +29166,22 @@
         <v>7</v>
       </c>
       <c r="B166" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C166" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D166" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F166" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G166" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H166" s="26" t="s">
         <v>8</v>
@@ -29292,20 +29201,20 @@
         <v>7</v>
       </c>
       <c r="B167" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C167" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D167" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F167" s="36"/>
       <c r="G167" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H167" s="26" t="s">
         <v>8</v>
@@ -29325,26 +29234,26 @@
         <v>7</v>
       </c>
       <c r="B168" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C168" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D168" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E168" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="E168" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="F168" s="36"/>
       <c r="G168" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H168" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I168" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J168" s="30">
         <v>1.2</v>
@@ -29364,26 +29273,26 @@
         <v>7</v>
       </c>
       <c r="B169" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C169" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D169" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F169" s="36"/>
       <c r="G169" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H169" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I169" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J169" s="30">
         <v>1.3</v>
@@ -29403,20 +29312,20 @@
         <v>7</v>
       </c>
       <c r="B170" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C170" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D170" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F170" s="36"/>
       <c r="G170" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H170" s="26" t="s">
         <v>8</v>
@@ -29436,26 +29345,26 @@
         <v>7</v>
       </c>
       <c r="B171" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C171" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D171" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="E171" s="25" t="s">
         <v>235</v>
-      </c>
-      <c r="E171" s="25" t="s">
-        <v>236</v>
       </c>
       <c r="F171" s="36"/>
       <c r="G171" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H171" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I171" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J171" s="30">
         <v>0.77</v>
@@ -29477,26 +29386,26 @@
         <v>7</v>
       </c>
       <c r="B172" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C172" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D172" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E172" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="E172" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F172" s="36"/>
       <c r="G172" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H172" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I172" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K172" s="26"/>
       <c r="L172" t="str">
@@ -29513,22 +29422,22 @@
         <v>7</v>
       </c>
       <c r="B173" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C173" s="36" t="s">
         <v>63</v>
       </c>
       <c r="D173" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F173" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="G173" s="36" t="s">
         <v>325</v>
-      </c>
-      <c r="G173" s="36" t="s">
-        <v>326</v>
       </c>
       <c r="H173" s="26" t="s">
         <v>8</v>
@@ -29548,28 +29457,28 @@
         <v>7</v>
       </c>
       <c r="B174" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C174" s="36" t="s">
         <v>63</v>
       </c>
       <c r="D174" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E174" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E174" s="25" t="s">
-        <v>240</v>
-      </c>
       <c r="F174" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G174" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H174" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I174" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J174" s="30">
         <v>1.1000000000000001</v>
@@ -29591,28 +29500,28 @@
         <v>7</v>
       </c>
       <c r="B175" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C175" s="36" t="s">
         <v>63</v>
       </c>
       <c r="D175" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F175" s="36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G175" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H175" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I175" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J175" s="30">
         <v>1.19</v>
@@ -29634,16 +29543,16 @@
         <v>7</v>
       </c>
       <c r="B176" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C176" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D176" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F176" s="36"/>
       <c r="G176" s="36"/>
@@ -29651,7 +29560,7 @@
         <v>8</v>
       </c>
       <c r="I176" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J176" s="30">
         <v>1.1200000000000001</v>
@@ -29673,16 +29582,16 @@
         <v>7</v>
       </c>
       <c r="B177" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C177" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D177" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E177" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="E177" s="25" t="s">
-        <v>227</v>
       </c>
       <c r="F177" s="36"/>
       <c r="G177" s="36"/>
@@ -29704,16 +29613,16 @@
         <v>7</v>
       </c>
       <c r="B178" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C178" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D178" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F178" s="36"/>
       <c r="G178" s="36"/>
@@ -29737,16 +29646,16 @@
         <v>7</v>
       </c>
       <c r="B179" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C179" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D179" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E179" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="E179" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="F179" s="36"/>
       <c r="G179" s="36"/>
@@ -29754,7 +29663,7 @@
         <v>8</v>
       </c>
       <c r="I179" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J179" s="48">
         <v>1.1200000000000001</v>
@@ -29776,16 +29685,16 @@
         <v>7</v>
       </c>
       <c r="B180" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C180" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D180" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F180" s="36"/>
       <c r="G180" s="36"/>
@@ -29793,7 +29702,7 @@
         <v>8</v>
       </c>
       <c r="I180" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J180" s="48">
         <v>1.1200000000000001</v>
@@ -29815,28 +29724,28 @@
         <v>7</v>
       </c>
       <c r="B181" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C181" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D181" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F181" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G181" s="36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H181" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I181" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J181" s="48">
         <v>1.2</v>
@@ -29858,28 +29767,28 @@
         <v>7</v>
       </c>
       <c r="B182" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C182" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D182" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="E182" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="E182" s="25" t="s">
-        <v>236</v>
-      </c>
       <c r="F182" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="G182" s="36" t="s">
         <v>330</v>
-      </c>
-      <c r="G182" s="36" t="s">
-        <v>331</v>
       </c>
       <c r="H182" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I182" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J182" s="48">
         <v>1.2</v>
@@ -29901,22 +29810,22 @@
         <v>7</v>
       </c>
       <c r="B183" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C183" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D183" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E183" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E183" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="F183" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G183" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H183" s="26" t="s">
         <v>8</v>
@@ -29938,16 +29847,16 @@
         <v>7</v>
       </c>
       <c r="B184" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C184" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D184" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F184" s="36"/>
       <c r="G184" s="36"/>
@@ -29955,7 +29864,7 @@
         <v>8</v>
       </c>
       <c r="I184" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J184" s="30">
         <v>0.95</v>
@@ -29977,22 +29886,22 @@
         <v>7</v>
       </c>
       <c r="B185" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C185" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D185" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F185" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G185" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H185" s="26" t="s">
         <v>8</v>
@@ -30012,28 +29921,28 @@
         <v>7</v>
       </c>
       <c r="B186" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C186" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D186" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E186" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E186" s="25" t="s">
-        <v>240</v>
-      </c>
       <c r="F186" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G186" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H186" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I186" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J186" s="30">
         <v>0.95</v>
@@ -30096,73 +30005,73 @@
         <v>27</v>
       </c>
       <c r="C1" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="G1" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="L1" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="M1" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="N1" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="O1" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="P1" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="Q1" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="R1" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="S1" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="T1" s="42" t="s">
         <v>348</v>
-      </c>
-      <c r="S1" s="55" t="s">
-        <v>345</v>
-      </c>
-      <c r="T1" s="42" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>26950853</v>
       </c>
       <c r="H2" s="61"/>
       <c r="J2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K2" s="45">
         <v>5</v>
@@ -30195,14 +30104,14 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B3" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="47">
         <v>26950853</v>
       </c>
       <c r="H3" s="61"/>
       <c r="J3" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K3" s="45">
         <v>5</v>
@@ -30228,7 +30137,7 @@
     <row r="4" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="59"/>
       <c r="B4" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="47">
         <v>26950853</v>
@@ -30252,17 +30161,17 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>21804106</v>
       </c>
       <c r="H6" s="61"/>
       <c r="J6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K6" s="45">
         <v>5</v>
@@ -30277,7 +30186,7 @@
         <v>141.27333333333331</v>
       </c>
       <c r="O6" s="59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -30289,19 +30198,19 @@
         <v>63.134500000000003</v>
       </c>
       <c r="S6" s="59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B7" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>17634449</v>
       </c>
       <c r="H7" s="61"/>
       <c r="J7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K7" s="45">
         <v>5</v>
@@ -30316,7 +30225,7 @@
         <v>29.053333333333331</v>
       </c>
       <c r="O7" s="59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -30325,7 +30234,7 @@
         <v>6.8579999999999997</v>
       </c>
       <c r="S7" s="59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
@@ -35348,10 +35257,10 @@
   <autoFilter ref="A1:T448" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C6:C1048576 C1:C2">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C5">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35373,77 +35282,77 @@
         <v>12</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="60">
         <v>1058.4455</v>
       </c>
       <c r="F2" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="H2" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="I2" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="J2" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="K2" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="L2" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="M2" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="N2" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="O2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="P2" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="Q2" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="47" t="s">
+      <c r="R2" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="S2" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="47" t="s">
+      <c r="T2" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="47" t="s">
+      <c r="U2" s="47" t="s">
         <v>81</v>
-      </c>
-      <c r="U2" s="47" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="60">
         <v>63.134500000000003</v>
       </c>
       <c r="F3" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="47" t="s">
         <v>67</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>68</v>
       </c>
       <c r="H3" s="47">
         <v>0.183</v>
@@ -35452,10 +35361,10 @@
         <v>0.51600000000000001</v>
       </c>
       <c r="J3" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="47" t="s">
         <v>71</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>72</v>
       </c>
       <c r="L3" s="47">
         <v>0.126</v>
@@ -35464,10 +35373,10 @@
         <v>0.437</v>
       </c>
       <c r="N3" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="47" t="s">
         <v>75</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>76</v>
       </c>
       <c r="P3" s="47">
         <v>0.114</v>
@@ -35476,10 +35385,10 @@
         <v>0.48599999999999999</v>
       </c>
       <c r="R3" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="47" t="s">
         <v>79</v>
-      </c>
-      <c r="S3" s="47" t="s">
-        <v>80</v>
       </c>
       <c r="T3" s="47">
         <v>0.14099999999999999</v>
@@ -35490,7 +35399,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="60">
         <v>298.01400000000001</v>
@@ -35498,7 +35407,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="60">
         <v>241.34549999999999</v>
@@ -35506,7 +35415,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="60">
         <v>275.01249999999999</v>
@@ -35514,7 +35423,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="60">
         <v>30.690999999999999</v>
@@ -35522,7 +35431,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="60">
         <v>309.06700000000001</v>
@@ -35530,7 +35439,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="60">
         <v>227.0654999999999</v>
@@ -35538,7 +35447,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="60">
         <v>7.8665000000000003</v>
@@ -35546,7 +35455,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="60">
         <v>254.39</v>
@@ -35554,7 +35463,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="60">
         <v>2.8264999999999998</v>
@@ -35562,7 +35471,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" s="60">
         <v>1041.771</v>
@@ -35570,7 +35479,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="60">
         <v>388.07400000000001</v>
@@ -35578,7 +35487,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="60">
         <v>442.85050000000001</v>
@@ -35586,7 +35495,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="60">
         <v>572.54049999999984</v>
@@ -35594,7 +35503,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="60">
         <v>14.326499999999999</v>
@@ -35602,7 +35511,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="60">
         <v>357.85750000000002</v>
@@ -35610,7 +35519,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" s="60">
         <v>28.0535</v>
@@ -35618,7 +35527,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" s="60">
         <v>75.880499999999998</v>
@@ -35626,7 +35535,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="60">
         <v>1115.0429999999999</v>
@@ -35634,7 +35543,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="60">
         <v>28.727499999999999</v>
@@ -35642,7 +35551,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="60">
         <v>630.22500000000002</v>
@@ -35650,7 +35559,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="61">
         <v>678.47249999999997</v>
@@ -35658,7 +35567,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25" s="61">
         <v>1355.704</v>
@@ -35666,7 +35575,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="60">
         <v>919.60699999999986</v>
@@ -35674,7 +35583,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" s="60">
         <v>269.42200000000003</v>
@@ -35682,7 +35591,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="60">
         <v>502.36399999999998</v>
@@ -35690,7 +35599,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="60">
         <v>966.4045000000001</v>
@@ -35698,7 +35607,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="60">
         <v>254.14099999999999</v>
@@ -35706,7 +35615,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="60">
         <v>599.42449999999997</v>
@@ -35714,7 +35623,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" s="60">
         <v>139.87299999999999</v>
@@ -35722,7 +35631,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="60">
         <v>1132.2550000000001</v>
@@ -35730,7 +35639,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="60">
         <v>760.26750000000004</v>
@@ -35738,7 +35647,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B35" s="60">
         <v>873.01850000000002</v>
@@ -35746,7 +35655,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B36" s="60">
         <v>504.9425</v>
@@ -35754,7 +35663,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="60">
         <v>29.064</v>
@@ -35762,7 +35671,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="60">
         <v>508.02300000000002</v>
@@ -35770,7 +35679,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="60">
         <v>268.88200000000001</v>
@@ -35778,7 +35687,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40" s="60">
         <v>285.34949999999998</v>
@@ -35786,7 +35695,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B41" s="60">
         <v>367.64150000000012</v>
@@ -35794,7 +35703,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B42" s="60">
         <v>7.8840000000000003</v>
@@ -35802,7 +35711,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B43" s="60">
         <v>21.5305</v>
@@ -35810,7 +35719,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" s="60">
         <v>21.155000000000001</v>
@@ -35818,7 +35727,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="60">
         <v>-145.95750000000001</v>
@@ -35826,7 +35735,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="60">
         <v>1137.0464999999999</v>
@@ -35834,7 +35743,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B47" s="60">
         <v>70.980500000000006</v>
@@ -35842,7 +35751,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="60">
         <v>68.230500000000006</v>
@@ -35850,7 +35759,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B49" s="60">
         <v>256.08150000000001</v>
@@ -35858,7 +35767,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" s="60">
         <v>325.54550000000012</v>
@@ -35866,7 +35775,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B51" s="60">
         <v>19.870999999999999</v>
@@ -35874,7 +35783,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" s="60">
         <v>6.087500000000027</v>
@@ -35882,7 +35791,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" s="60">
         <v>258.76600000000002</v>
@@ -35890,7 +35799,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" s="60">
         <v>40.953499999999998</v>
@@ -35898,7 +35807,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55" s="60">
         <v>618.94399999999985</v>
@@ -35906,7 +35815,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" s="60">
         <v>61.294499999999992</v>
@@ -35914,7 +35823,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" s="60">
         <v>6.1914999999999996</v>
@@ -35922,7 +35831,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B58" s="60">
         <v>1209.8665000000001</v>
@@ -35930,7 +35839,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B59" s="60">
         <v>255.95349999999999</v>
@@ -35946,7 +35855,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B61" s="60">
         <v>7.8665000000000003</v>
@@ -35954,7 +35863,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" s="60">
         <v>505.80849999999998</v>
@@ -35962,7 +35871,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B63" s="60">
         <v>7.3609999999999998</v>
@@ -35970,7 +35879,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
